--- a/assets/findings/2024-02-09-findings.xlsx
+++ b/assets/findings/2024-02-09-findings.xlsx
@@ -638,8 +638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -671,8 +673,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -737,8 +741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -770,8 +776,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -836,8 +844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -869,8 +879,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -935,8 +947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -968,8 +982,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1034,8 +1050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1067,8 +1085,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1300,8 +1320,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1333,8 +1355,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1399,8 +1423,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1432,8 +1458,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1659,8 +1687,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1692,8 +1722,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1758,8 +1790,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1791,8 +1825,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1857,8 +1893,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1890,8 +1928,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1956,8 +1996,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1989,8 +2031,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2055,8 +2099,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -2088,8 +2134,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2154,8 +2202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -2187,8 +2237,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -2253,8 +2305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2286,8 +2340,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2352,8 +2408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2385,8 +2443,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2451,8 +2511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2484,8 +2546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -2550,8 +2614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2583,8 +2649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -2649,8 +2717,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -2682,8 +2752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -2748,8 +2820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2781,8 +2855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -2847,8 +2923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2880,8 +2958,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2946,8 +3026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -2979,8 +3061,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -3045,8 +3129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -3078,8 +3164,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -3144,8 +3232,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -3177,8 +3267,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -3243,8 +3335,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -3276,8 +3370,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -3342,8 +3438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -3375,8 +3473,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -3441,8 +3541,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -3474,8 +3576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -3540,8 +3644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -3573,8 +3679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -3639,8 +3747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N22" t="n">
         <v>3354613</v>
@@ -3675,8 +3785,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -3940,8 +4052,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3973,8 +4087,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4039,8 +4155,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4072,8 +4190,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4138,8 +4258,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>4043854</v>
@@ -4174,8 +4296,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4240,8 +4364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>4043854</v>
@@ -4276,8 +4402,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4507,8 +4635,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4540,8 +4670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4606,8 +4738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4639,8 +4773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4705,8 +4841,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4738,8 +4876,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4804,8 +4944,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4837,8 +4979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4903,8 +5047,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4936,8 +5082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5169,8 +5317,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5202,8 +5352,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5268,8 +5420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5301,8 +5455,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5367,8 +5523,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5400,8 +5558,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5466,8 +5626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5499,8 +5661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -5565,8 +5729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -5598,8 +5764,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5664,8 +5832,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -5697,8 +5867,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5932,8 +6104,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5965,8 +6139,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6190,8 +6366,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -6223,8 +6401,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6289,8 +6469,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -6322,8 +6504,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6388,8 +6572,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -6421,8 +6607,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -6487,8 +6675,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -6520,8 +6710,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6751,8 +6943,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6784,8 +6978,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6850,8 +7046,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -6883,8 +7081,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6949,8 +7149,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -6982,8 +7184,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7048,8 +7252,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7081,8 +7287,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7147,8 +7355,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -7180,8 +7390,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -7246,8 +7458,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -7279,8 +7493,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -7345,8 +7561,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -7378,8 +7596,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -7444,8 +7664,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -7477,8 +7699,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -7543,8 +7767,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -7576,8 +7802,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -7642,8 +7870,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -7675,8 +7905,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -7741,8 +7973,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -7774,8 +8008,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -7840,8 +8076,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -7873,8 +8111,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -7939,8 +8179,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -7972,8 +8214,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -8038,8 +8282,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -8071,8 +8317,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -8137,8 +8385,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -8170,8 +8420,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -8236,8 +8488,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -8269,8 +8523,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -8335,8 +8591,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -8368,8 +8626,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -8434,8 +8694,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -8467,8 +8729,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -8533,8 +8797,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -8566,8 +8832,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -8632,8 +8900,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -8665,8 +8935,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -8731,8 +9003,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -8764,8 +9038,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -8830,8 +9106,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -8863,8 +9141,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -8929,8 +9209,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -8962,8 +9244,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -9028,8 +9312,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -9061,8 +9347,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -9127,8 +9415,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -9160,8 +9450,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -9226,8 +9518,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -9259,8 +9553,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -9325,8 +9621,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -9358,8 +9656,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -9424,8 +9724,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -9457,8 +9759,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -9523,8 +9827,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -9556,8 +9862,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -9622,8 +9930,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -9655,8 +9965,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -9721,8 +10033,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -9754,8 +10068,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -9820,8 +10136,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -9853,8 +10171,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -9919,8 +10239,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -9952,8 +10274,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -10018,8 +10342,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -10051,8 +10377,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -10117,8 +10445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -10150,8 +10480,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -10216,8 +10548,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -10249,8 +10583,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -10315,8 +10651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -10348,8 +10686,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -10645,8 +10985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -10678,8 +11020,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10744,8 +11088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10777,8 +11123,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10843,8 +11191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -10876,8 +11226,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -10942,8 +11294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -10975,8 +11329,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -11041,8 +11397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -11074,8 +11432,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -11140,8 +11500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -11173,8 +11535,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -11239,8 +11603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -11272,8 +11638,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -11338,8 +11706,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -11371,8 +11741,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -11437,8 +11809,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -11470,8 +11844,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -11536,8 +11912,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -11569,8 +11947,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11635,8 +12015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -11668,8 +12050,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -11734,8 +12118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>271826</v>
@@ -11770,8 +12156,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -11836,8 +12224,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N14" t="n">
         <v>271826</v>
@@ -11872,8 +12262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -11938,8 +12330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v>223188</v>
@@ -11974,8 +12368,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -12040,8 +12436,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v>223188</v>
@@ -12076,8 +12474,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -12142,8 +12542,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N17" t="n">
         <v>131758</v>
@@ -12178,8 +12580,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -12244,8 +12648,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N18" t="n">
         <v>131758</v>
@@ -12280,8 +12686,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -12346,8 +12754,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N19" t="n">
         <v>73394</v>
@@ -12382,8 +12792,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -12448,8 +12860,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N20" t="n">
         <v>73394</v>
@@ -12484,8 +12898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -12550,8 +12966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>1</v>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N21" t="n">
         <v>256163</v>
@@ -12586,8 +13004,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -12652,8 +13072,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N22" t="n">
         <v>256163</v>
@@ -12688,8 +13110,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -12754,8 +13178,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N23" t="n">
         <v>281014</v>
@@ -12790,8 +13216,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -12856,8 +13284,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N24" t="n">
         <v>281014</v>
@@ -12892,8 +13322,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -12958,8 +13390,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -12991,8 +13425,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -13057,8 +13493,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -13090,8 +13528,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -13156,8 +13596,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -13189,8 +13631,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -13255,8 +13699,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -13288,8 +13734,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -13354,8 +13802,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -13387,8 +13837,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -13453,8 +13905,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -13486,8 +13940,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -13767,8 +14223,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13800,8 +14258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13866,8 +14326,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -13899,8 +14361,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13965,8 +14429,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -13998,8 +14464,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -14064,8 +14532,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -14097,8 +14567,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -14163,8 +14635,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -14196,8 +14670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -14262,8 +14738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -14295,8 +14773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -14530,8 +15010,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>3354613</v>
@@ -14566,8 +15048,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14791,8 +15275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -14824,8 +15310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15049,8 +15537,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -15082,8 +15572,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15148,8 +15640,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -15181,8 +15675,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15247,8 +15743,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -15280,8 +15778,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15509,8 +16009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15542,8 +16044,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15608,8 +16112,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -15641,8 +16147,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15707,8 +16215,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15740,8 +16250,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15806,8 +16318,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15839,8 +16353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -16070,8 +16586,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -16103,8 +16621,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16169,8 +16689,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -16202,8 +16724,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -16268,8 +16792,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -16301,8 +16827,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -16530,8 +17058,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -16563,8 +17093,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16629,8 +17161,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -16662,8 +17196,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -16728,8 +17264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -16761,8 +17299,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -16827,8 +17367,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -16860,8 +17402,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -16926,8 +17470,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -16959,8 +17505,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -17025,8 +17573,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -17058,8 +17608,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -17124,8 +17676,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -17157,8 +17711,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -17223,8 +17779,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -17256,8 +17814,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -17322,8 +17882,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -17355,8 +17917,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -17421,8 +17985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -17454,8 +18020,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -17520,8 +18088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -17553,8 +18123,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -17619,8 +18191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -17652,8 +18226,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -17718,8 +18294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -17751,8 +18329,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -17817,8 +18397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -17850,8 +18432,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -17916,8 +18500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -17949,8 +18535,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -18015,8 +18603,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -18048,8 +18638,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -18114,8 +18706,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -18147,8 +18741,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -18213,8 +18809,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -18246,8 +18844,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -18312,8 +18912,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -18345,8 +18947,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -18411,8 +19015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -18444,8 +19050,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -18510,8 +19118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -18543,8 +19153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -18609,8 +19221,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -18642,8 +19256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -18708,8 +19324,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -18741,8 +19359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -18807,8 +19427,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -18840,8 +19462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -18906,8 +19530,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -18939,8 +19565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -19005,8 +19633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -19038,8 +19668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -19104,8 +19736,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -19137,8 +19771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -19203,8 +19839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -19236,8 +19874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -19302,8 +19942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -19335,8 +19977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -19401,8 +20045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -19434,8 +20080,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -19500,8 +20148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -19533,8 +20183,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -19599,8 +20251,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -19632,8 +20286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -19698,8 +20354,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -19731,8 +20389,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -19797,8 +20457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -19830,8 +20492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -19896,8 +20560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -19929,8 +20595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -19995,8 +20663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -20028,8 +20698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -20094,8 +20766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -20127,8 +20801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -20193,8 +20869,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -20226,8 +20904,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -20292,8 +20972,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -20325,8 +21007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -20391,8 +21075,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -20424,8 +21110,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -20490,8 +21178,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -20523,8 +21213,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -20589,8 +21281,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -20622,8 +21316,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -20688,8 +21384,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -20721,8 +21419,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -20787,8 +21487,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
@@ -20820,8 +21522,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -20886,8 +21590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -20919,8 +21625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -20985,8 +21693,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -21018,8 +21728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -21084,8 +21796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -21117,8 +21831,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -21183,8 +21899,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" s="1" t="inlineStr">
         <is>
@@ -21216,8 +21934,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -21282,8 +22002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -21315,8 +22037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -21381,8 +22105,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" s="1" t="inlineStr">
         <is>
@@ -21414,8 +22140,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -21480,8 +22208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -21513,8 +22243,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>1</v>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -21579,8 +22311,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -21612,8 +22346,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -21678,8 +22414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -21711,8 +22449,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -21777,8 +22517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -21810,8 +22552,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -21876,8 +22620,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -21909,8 +22655,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -21975,8 +22723,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -22008,8 +22758,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -22074,8 +22826,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -22107,8 +22861,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -22173,8 +22929,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -22206,8 +22964,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -22545,8 +23305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -22578,8 +23340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22644,8 +23408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -22677,8 +23443,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -22743,8 +23511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -22776,8 +23546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -22842,8 +23614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -22875,8 +23649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -22941,8 +23717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -22974,8 +23752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -23040,8 +23820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -23073,8 +23855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -23139,8 +23923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -23172,8 +23958,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -23238,8 +24026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>4043854</v>
@@ -23274,8 +24064,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -23340,8 +24132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>4043854</v>
@@ -23376,8 +24170,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -23442,8 +24238,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -23475,8 +24273,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -23541,8 +24341,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -23574,8 +24376,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -23640,8 +24444,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -23673,8 +24479,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -23739,8 +24547,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N14" t="n">
         <v>271826</v>
@@ -23775,8 +24585,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -23841,8 +24653,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v>271826</v>
@@ -23877,8 +24691,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -23943,8 +24759,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v>223188</v>
@@ -23979,8 +24797,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -24045,8 +24865,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N17" t="n">
         <v>223188</v>
@@ -24081,8 +24903,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -24147,8 +24971,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N18" t="n">
         <v>131758</v>
@@ -24183,8 +25009,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -24249,8 +25077,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N19" t="n">
         <v>131758</v>
@@ -24285,8 +25115,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -24351,8 +25183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N20" t="n">
         <v>73394</v>
@@ -24387,8 +25221,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -24453,8 +25289,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>1</v>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N21" t="n">
         <v>73394</v>
@@ -24489,8 +25327,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -24555,8 +25395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N22" t="n">
         <v>256163</v>
@@ -24591,8 +25433,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -24657,8 +25501,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N23" t="n">
         <v>256163</v>
@@ -24693,8 +25539,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -24759,8 +25607,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N24" t="n">
         <v>281014</v>
@@ -24795,8 +25645,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -24861,8 +25713,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>1</v>
+      <c r="M25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N25" t="n">
         <v>281014</v>
@@ -24897,8 +25751,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
